--- a/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-salinity-test-2018-2019-model-k-10-old-configuration.xlsx
+++ b/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-salinity-test-2018-2019-model-k-10-old-configuration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Row</t>
   </si>
@@ -25,6 +25,45 @@
   </si>
   <si>
     <t>neural_network</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>neural_network</t>
+  </si>
+  <si>
+    <t>old_model</t>
   </si>
   <si>
     <t>RMSE</t>
@@ -94,10 +133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="true"/>
+    <col min="1" max="1" width="15.28515625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
@@ -110,118 +149,147 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0">
-        <v>4.3926125858723557</v>
+        <v>4.3429963328524117</v>
       </c>
       <c r="C2" s="0">
-        <v>0.37354917316615782</v>
+        <v>0.36932979120863829</v>
       </c>
       <c r="D2" s="0">
-        <v>3.468917342093115</v>
+        <v>3.462684439839427</v>
       </c>
       <c r="E2" s="0">
-        <v>0.35111085036019629</v>
+        <v>0.34322378219884236</v>
       </c>
       <c r="F2" s="0">
-        <v>0.59254607446189056</v>
+        <v>0.58585303805548572</v>
       </c>
       <c r="G2" s="0">
-        <v>0.53127137516338174</v>
+        <v>0.53031679417311295</v>
       </c>
       <c r="H2" s="0">
-        <v>0.64888914963980371</v>
+        <v>0.65677621780115758</v>
       </c>
       <c r="I2" s="0">
-        <v>0.82600621692213361</v>
+        <v>0.83454519166440044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0">
-        <v>4.4860618769378178</v>
+        <v>4.6116412802035098</v>
       </c>
       <c r="C3" s="0">
-        <v>0.38149613063805932</v>
+        <v>0.39217544308356667</v>
       </c>
       <c r="D3" s="0">
-        <v>3.4868445184298462</v>
+        <v>3.5799294346158832</v>
       </c>
       <c r="E3" s="0">
-        <v>0.36620896057458796</v>
+        <v>0.38699867984222958</v>
       </c>
       <c r="F3" s="0">
-        <v>0.60515201443487565</v>
+        <v>0.62209217953791185</v>
       </c>
       <c r="G3" s="0">
-        <v>0.53401695676304739</v>
+        <v>0.5482730910413246</v>
       </c>
       <c r="H3" s="0">
-        <v>0.63379103942541204</v>
+        <v>0.61300132015777042</v>
       </c>
       <c r="I3" s="0">
-        <v>0.81528197469866082</v>
+        <v>0.79707356012971065</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0">
-        <v>4.3945770172458687</v>
+        <v>4.0798707592104977</v>
       </c>
       <c r="C4" s="0">
-        <v>0.37371622903575064</v>
+        <v>0.34695350863162883</v>
       </c>
       <c r="D4" s="0">
-        <v>3.4750983174398984</v>
+        <v>3.218397337635309</v>
       </c>
       <c r="E4" s="0">
-        <v>0.35142496292314079</v>
+        <v>0.30289441057403549</v>
       </c>
       <c r="F4" s="0">
-        <v>0.59281106848905984</v>
+        <v>0.55035843826912978</v>
       </c>
       <c r="G4" s="0">
-        <v>0.53221800344780068</v>
+        <v>0.49290375375620021</v>
       </c>
       <c r="H4" s="0">
-        <v>0.64857503707685926</v>
+        <v>0.69710558942596457</v>
       </c>
       <c r="I4" s="0">
-        <v>0.82000950058243438</v>
+        <v>0.84361841737650511</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4.0628397039906616</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.34550518227205451</v>
+      </c>
+      <c r="D5" s="0">
+        <v>3.0211847857374399</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.30037087752345837</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.54806101624131087</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.46270027142616538</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.69962912247654163</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0.84531908412890899</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-salinity-test-2018-2019-model-k-10-old-configuration.xlsx
+++ b/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-salinity-test-2018-2019-model-k-10-old-configuration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Row</t>
   </si>
@@ -25,6 +25,45 @@
   </si>
   <si>
     <t>neural_network</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>neural_network</t>
+  </si>
+  <si>
+    <t>old_model</t>
   </si>
   <si>
     <t>RMSE</t>
@@ -149,123 +188,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0">
-        <v>4.3429963328524117</v>
+        <v>4.4462543499490916</v>
       </c>
       <c r="C2" s="0">
-        <v>0.36932979120863829</v>
+        <v>0.37811088586590397</v>
       </c>
       <c r="D2" s="0">
-        <v>3.462684439839427</v>
+        <v>3.5804165403231774</v>
       </c>
       <c r="E2" s="0">
-        <v>0.34322378219884236</v>
+        <v>0.35973861114165051</v>
       </c>
       <c r="F2" s="0">
-        <v>0.58585303805548572</v>
+        <v>0.59978213639758438</v>
       </c>
       <c r="G2" s="0">
-        <v>0.53031679417311295</v>
+        <v>0.54834769221899571</v>
       </c>
       <c r="H2" s="0">
-        <v>0.65677621780115758</v>
+        <v>0.64026138885834949</v>
       </c>
       <c r="I2" s="0">
-        <v>0.83454519166440044</v>
+        <v>0.8325092811520225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0">
-        <v>4.6116412802035098</v>
+        <v>4.6637581786857902</v>
       </c>
       <c r="C3" s="0">
-        <v>0.39217544308356667</v>
+        <v>0.39660748072755436</v>
       </c>
       <c r="D3" s="0">
-        <v>3.5799294346158832</v>
+        <v>3.654055095483784</v>
       </c>
       <c r="E3" s="0">
-        <v>0.38699867984222958</v>
+        <v>0.39579517427749217</v>
       </c>
       <c r="F3" s="0">
-        <v>0.62209217953791185</v>
+        <v>0.62912254313249039</v>
       </c>
       <c r="G3" s="0">
-        <v>0.5482730910413246</v>
+        <v>0.55962557883523145</v>
       </c>
       <c r="H3" s="0">
-        <v>0.61300132015777042</v>
+        <v>0.60420482572250789</v>
       </c>
       <c r="I3" s="0">
-        <v>0.79707356012971065</v>
+        <v>0.78756006301541914</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0">
-        <v>4.0798707592104977</v>
+        <v>4.1921153396111563</v>
       </c>
       <c r="C4" s="0">
-        <v>0.34695350863162883</v>
+        <v>0.35649882349410983</v>
       </c>
       <c r="D4" s="0">
-        <v>3.218397337635309</v>
+        <v>3.380758035404825</v>
       </c>
       <c r="E4" s="0">
-        <v>0.30289441057403549</v>
+        <v>0.31979001076903546</v>
       </c>
       <c r="F4" s="0">
-        <v>0.55035843826912978</v>
+        <v>0.5654997884783296</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49290375375620021</v>
+        <v>0.51776960747079182</v>
       </c>
       <c r="H4" s="0">
-        <v>0.69710558942596457</v>
+        <v>0.68020998923096454</v>
       </c>
       <c r="I4" s="0">
-        <v>0.84361841737650511</v>
+        <v>0.85226031249339207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0">
         <v>4.0628397039906616</v>
